--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N2">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O2">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P2">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q2">
-        <v>2.133637175828889</v>
+        <v>1.428561047827556</v>
       </c>
       <c r="R2">
-        <v>19.20273458246</v>
+        <v>12.857049430448</v>
       </c>
       <c r="S2">
-        <v>0.008754904555379785</v>
+        <v>0.008350892942673998</v>
       </c>
       <c r="T2">
-        <v>0.008754904555379788</v>
+        <v>0.008350892942673998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.443815</v>
       </c>
       <c r="O3">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P3">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q3">
-        <v>1.378417099705555</v>
+        <v>2.436286516987222</v>
       </c>
       <c r="R3">
-        <v>12.40575389735</v>
+        <v>21.926578652885</v>
       </c>
       <c r="S3">
-        <v>0.005656027314361609</v>
+        <v>0.01424172100448893</v>
       </c>
       <c r="T3">
-        <v>0.005656027314361611</v>
+        <v>0.01424172100448893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H4">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I4">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J4">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.57454</v>
       </c>
       <c r="O4">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P4">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q4">
-        <v>0.7985908413999999</v>
+        <v>1.41147124474</v>
       </c>
       <c r="R4">
-        <v>7.1873175726</v>
+        <v>12.70324120266</v>
       </c>
       <c r="S4">
-        <v>0.003276839508826658</v>
+        <v>0.008250991635542193</v>
       </c>
       <c r="T4">
-        <v>0.003276839508826659</v>
+        <v>0.008250991635542193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N5">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O5">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P5">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q5">
-        <v>101.238669245506</v>
+        <v>38.35102295300801</v>
       </c>
       <c r="R5">
-        <v>911.1480232095541</v>
+        <v>345.159206577072</v>
       </c>
       <c r="S5">
-        <v>0.415410312774354</v>
+        <v>0.2241873299076981</v>
       </c>
       <c r="T5">
-        <v>0.4154103127743541</v>
+        <v>0.2241873299076981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J6">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.443815</v>
       </c>
       <c r="O6">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P6">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q6">
         <v>65.40433135508501</v>
@@ -818,10 +818,10 @@
         <v>588.638982195765</v>
       </c>
       <c r="S6">
-        <v>0.2683720948477344</v>
+        <v>0.3823319766166703</v>
       </c>
       <c r="T6">
-        <v>0.2683720948477344</v>
+        <v>0.3823319766166703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>132.462531</v>
       </c>
       <c r="I7">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J7">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.57454</v>
       </c>
       <c r="O7">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P7">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q7">
         <v>37.89223161786</v>
@@ -880,10 +880,10 @@
         <v>341.03008456074</v>
       </c>
       <c r="S7">
-        <v>0.1554823261250268</v>
+        <v>0.2215053882933206</v>
       </c>
       <c r="T7">
-        <v>0.1554823261250269</v>
+        <v>0.2215053882933206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.577421</v>
       </c>
       <c r="I8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N8">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O8">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P8">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q8">
-        <v>17.25550644231267</v>
+        <v>6.536695203194667</v>
       </c>
       <c r="R8">
-        <v>155.299557980814</v>
+        <v>58.83025682875201</v>
       </c>
       <c r="S8">
-        <v>0.07080412436969265</v>
+        <v>0.03821134695208255</v>
       </c>
       <c r="T8">
-        <v>0.07080412436969266</v>
+        <v>0.03821134695208255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.577421</v>
       </c>
       <c r="I9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.443815</v>
       </c>
       <c r="O9">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P9">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q9">
         <v>11.14776467790167</v>
@@ -1004,10 +1004,10 @@
         <v>100.329882101115</v>
       </c>
       <c r="S9">
-        <v>0.04574236747770757</v>
+        <v>0.06516612609370058</v>
       </c>
       <c r="T9">
-        <v>0.04574236747770757</v>
+        <v>0.06516612609370058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.577421</v>
       </c>
       <c r="I10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.57454</v>
       </c>
       <c r="O10">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P10">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q10">
         <v>6.45849705126</v>
@@ -1066,10 +1066,10 @@
         <v>58.12647346134</v>
       </c>
       <c r="S10">
-        <v>0.02650100302691656</v>
+        <v>0.03775422655382276</v>
       </c>
       <c r="T10">
-        <v>0.02650100302691657</v>
+        <v>0.03775422655382276</v>
       </c>
     </row>
   </sheetData>
